--- a/AndroidAppiumTestCases.xlsx
+++ b/AndroidAppiumTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="682" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,16 @@
     <sheet name="CategoryListPage" sheetId="3" r:id="rId3"/>
     <sheet name="CategoryPage" sheetId="4" r:id="rId4"/>
     <sheet name="CartPage" sheetId="5" r:id="rId5"/>
+    <sheet name="CheckoutPage" sheetId="6" r:id="rId6"/>
+    <sheet name="ThankYouPage" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="85">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -267,6 +270,12 @@
   </si>
   <si>
     <t>navigateCategoryListPage()</t>
+  </si>
+  <si>
+    <t>CheckoutPage</t>
+  </si>
+  <si>
+    <t>ThankYouPage</t>
   </si>
 </sst>
 </file>
@@ -660,7 +669,7 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1701,7 +1710,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1900,4 +1909,599 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AndroidAppiumTestCases.xlsx
+++ b/AndroidAppiumTestCases.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="682" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="682"/>
   </bookViews>
   <sheets>
-    <sheet name="HomePage" sheetId="1" r:id="rId1"/>
-    <sheet name="LoginPage" sheetId="2" r:id="rId2"/>
-    <sheet name="CategoryListPage" sheetId="3" r:id="rId3"/>
-    <sheet name="CategoryPage" sheetId="4" r:id="rId4"/>
-    <sheet name="CartPage" sheetId="5" r:id="rId5"/>
-    <sheet name="CheckoutPage" sheetId="6" r:id="rId6"/>
-    <sheet name="ThankYouPage" sheetId="7" r:id="rId7"/>
-    <sheet name="Sprint1" sheetId="8" r:id="rId8"/>
+    <sheet name="Sprint1" sheetId="8" r:id="rId1"/>
+    <sheet name="HomePage" sheetId="1" r:id="rId2"/>
+    <sheet name="LoginPage" sheetId="2" r:id="rId3"/>
+    <sheet name="CategoryListPage" sheetId="3" r:id="rId4"/>
+    <sheet name="CategoryPage" sheetId="4" r:id="rId5"/>
+    <sheet name="CartPage" sheetId="5" r:id="rId6"/>
+    <sheet name="CheckoutPage" sheetId="6" r:id="rId7"/>
+    <sheet name="ThankYouPage" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="97">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -242,9 +242,6 @@
     <t>SignUp</t>
   </si>
   <si>
-    <t xml:space="preserve">To make user register </t>
-  </si>
-  <si>
     <t>headerVisible()</t>
   </si>
   <si>
@@ -254,9 +251,6 @@
     <t xml:space="preserve">loginGooglePlus() </t>
   </si>
   <si>
-    <t>userRegister()</t>
-  </si>
-  <si>
     <t>loginFacebook()</t>
   </si>
   <si>
@@ -276,6 +270,48 @@
   </si>
   <si>
     <t>ThankYouPage</t>
+  </si>
+  <si>
+    <t>Sections</t>
+  </si>
+  <si>
+    <t>Hot Deals</t>
+  </si>
+  <si>
+    <t>More Link</t>
+  </si>
+  <si>
+    <t>About Us</t>
+  </si>
+  <si>
+    <t>userSignUp()</t>
+  </si>
+  <si>
+    <t>To make user signup</t>
+  </si>
+  <si>
+    <t>Avtar icon</t>
+  </si>
+  <si>
+    <t>Login or Signup link</t>
+  </si>
+  <si>
+    <t>CATEGORIES</t>
+  </si>
+  <si>
+    <t>Categories list</t>
+  </si>
+  <si>
+    <t>Navigate to CategoryList page</t>
+  </si>
+  <si>
+    <t>To check hot deals present, clickable and page gets open successfully</t>
+  </si>
+  <si>
+    <t>Login and Logout</t>
+  </si>
+  <si>
+    <t>To check About Us link present and About Us page should get open successfully</t>
   </si>
 </sst>
 </file>
@@ -665,12 +701,291 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -848,10 +1163,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>33</v>
@@ -868,10 +1183,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -888,10 +1203,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>35</v>
@@ -908,10 +1223,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>36</v>
@@ -928,10 +1243,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>37</v>
@@ -948,10 +1263,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>38</v>
@@ -968,10 +1283,10 @@
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>39</v>
@@ -984,10 +1299,10 @@
         <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>40</v>
@@ -995,22 +1310,22 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="30">
+    <row r="17" spans="1:6" ht="45">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30">
@@ -1018,11 +1333,9 @@
         <v>30</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1033,7 +1346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -1041,7 +1354,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1112,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1132,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1152,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1170,7 +1483,7 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1184,11 +1497,11 @@
         <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1284,7 +1597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1493,7 +1806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -1540,7 +1853,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -1558,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -1572,7 +1885,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -1586,7 +1899,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -1600,7 +1913,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -1614,7 +1927,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1626,7 +1939,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1638,7 +1951,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1650,7 +1963,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1702,7 +2015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -1749,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -1767,7 +2080,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -1781,7 +2094,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -1795,7 +2108,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -1809,7 +2122,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -1823,7 +2136,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1835,7 +2148,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1847,7 +2160,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1859,7 +2172,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1911,7 +2224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -1958,7 +2271,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -1976,7 +2289,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -1990,7 +2303,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -2004,7 +2317,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -2018,7 +2331,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -2032,7 +2345,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2044,7 +2357,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2056,7 +2369,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2068,7 +2381,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2120,7 +2433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -2167,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -2185,7 +2498,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -2199,7 +2512,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -2213,7 +2526,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -2227,7 +2540,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -2241,7 +2554,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2253,7 +2566,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2265,7 +2578,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2277,7 +2590,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2327,181 +2640,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF002060"/>
-  </sheetPr>
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15" style="2" customWidth="1"/>
-    <col min="4" max="4" width="61.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/AndroidAppiumTestCases.xlsx
+++ b/AndroidAppiumTestCases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="100">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -312,6 +312,15 @@
   </si>
   <si>
     <t>To check About Us link present and About Us page should get open successfully</t>
+  </si>
+  <si>
+    <t>sprint1_loginAndlogout()</t>
+  </si>
+  <si>
+    <t>sprint1_userSignUp()</t>
+  </si>
+  <si>
+    <t>sprint1_HotDeals()</t>
   </si>
 </sst>
 </file>
@@ -386,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -404,6 +413,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -706,7 +718,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A17"/>
+      <selection activeCell="E5" sqref="E5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -757,7 +769,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -773,9 +785,11 @@
       <c r="D3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
@@ -791,8 +805,12 @@
       <c r="D4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
@@ -807,12 +825,8 @@
       <c r="D5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
@@ -827,12 +841,8 @@
       <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="30">
       <c r="A7" s="3" t="s">
@@ -847,12 +857,8 @@
       <c r="D7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="45">
       <c r="A8" s="3" t="s">

--- a/AndroidAppiumTestCases.xlsx
+++ b/AndroidAppiumTestCases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="102">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -321,6 +321,12 @@
   </si>
   <si>
     <t>sprint1_HotDeals()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To check all links displaying in navigation drawer </t>
+  </si>
+  <si>
+    <t>To check View All link present and after tapping on View All 27 categories with their icons are present</t>
   </si>
 </sst>
 </file>
@@ -336,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +370,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,7 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -715,10 +727,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E7"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -825,8 +837,12 @@
       <c r="D5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
@@ -839,10 +855,14 @@
         <v>92</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="30">
       <c r="A7" s="3" t="s">
@@ -855,62 +875,58 @@
         <v>92</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="30">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -920,7 +936,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -930,7 +946,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -940,7 +956,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -950,7 +966,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -960,23 +976,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AndroidAppiumTestCases.xlsx
+++ b/AndroidAppiumTestCases.xlsx
@@ -281,9 +281,6 @@
     <t>More Link</t>
   </si>
   <si>
-    <t>About Us</t>
-  </si>
-  <si>
     <t>userSignUp()</t>
   </si>
   <si>
@@ -311,9 +308,6 @@
     <t>Login and Logout</t>
   </si>
   <si>
-    <t>To check About Us link present and About Us page should get open successfully</t>
-  </si>
-  <si>
     <t>sprint1_loginAndlogout()</t>
   </si>
   <si>
@@ -327,6 +321,12 @@
   </si>
   <si>
     <t>To check View All link present and after tapping on View All 27 categories with their icons are present</t>
+  </si>
+  <si>
+    <t>To check More link present and tapping on this link remaining options get displayed + To check About Us link present and About Us page should get open successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More Link + About Us </t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -772,7 +772,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>15</v>
@@ -781,7 +781,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -795,13 +795,13 @@
         <v>72</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
@@ -815,13 +815,13 @@
         <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -832,7 +832,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>36</v>
@@ -841,7 +841,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -852,16 +852,16 @@
         <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
@@ -872,51 +872,51 @@
         <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="30">
+      <c r="F7" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="30">
+        <v>100</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -926,7 +926,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -936,7 +936,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -946,7 +946,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -956,7 +956,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -966,7 +966,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -976,7 +976,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1178,7 +1178,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>33</v>
@@ -1198,7 +1198,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -1238,7 +1238,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>36</v>
@@ -1258,7 +1258,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>37</v>
@@ -1278,7 +1278,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>38</v>
@@ -1298,7 +1298,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>39</v>
@@ -1330,7 +1330,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>79</v>
@@ -1509,11 +1509,11 @@
         <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6">

--- a/AndroidAppiumTestCases.xlsx
+++ b/AndroidAppiumTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="682"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="682" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="8" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="CartPage" sheetId="5" r:id="rId6"/>
     <sheet name="CheckoutPage" sheetId="6" r:id="rId7"/>
     <sheet name="ThankYouPage" sheetId="7" r:id="rId8"/>
+    <sheet name="Doubts" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="105">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -327,6 +328,15 @@
   </si>
   <si>
     <t xml:space="preserve">More Link + About Us </t>
+  </si>
+  <si>
+    <t>how to automate web view pages in app</t>
+  </si>
+  <si>
+    <t>how to find elemnts which need to scroll the page</t>
+  </si>
+  <si>
+    <t>how to take screenshots</t>
   </si>
 </sst>
 </file>
@@ -407,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -430,6 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,15 +740,15 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="61.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="2" customWidth="1"/>
@@ -2652,4 +2663,122 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="8">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="8">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="8">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8">
+        <v>15</v>
+      </c>
+      <c r="B15" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AndroidAppiumTestCases.xlsx
+++ b/AndroidAppiumTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="682" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="682" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="8" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="CategoryPage" sheetId="4" r:id="rId5"/>
     <sheet name="CartPage" sheetId="5" r:id="rId6"/>
     <sheet name="CheckoutPage" sheetId="6" r:id="rId7"/>
-    <sheet name="ThankYouPage" sheetId="7" r:id="rId8"/>
+    <sheet name="Order SuccessPage" sheetId="7" r:id="rId8"/>
     <sheet name="Doubts" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -270,9 +270,6 @@
     <t>CheckoutPage</t>
   </si>
   <si>
-    <t>ThankYouPage</t>
-  </si>
-  <si>
     <t>Sections</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>how to take screenshots</t>
+  </si>
+  <si>
+    <t>Order SuccessPage</t>
   </si>
 </sst>
 </file>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>64</v>
@@ -783,7 +783,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>15</v>
@@ -792,7 +792,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -806,13 +806,13 @@
         <v>72</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
@@ -823,16 +823,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -843,7 +843,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>36</v>
@@ -852,7 +852,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -863,16 +863,16 @@
         <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
@@ -883,16 +883,16 @@
         <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45">
@@ -903,16 +903,16 @@
         <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1189,7 +1189,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>33</v>
@@ -1209,7 +1209,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -1229,7 +1229,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>35</v>
@@ -1249,7 +1249,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>36</v>
@@ -1269,7 +1269,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>37</v>
@@ -1289,7 +1289,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>38</v>
@@ -1309,7 +1309,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>39</v>
@@ -1325,7 +1325,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>40</v>
@@ -1341,7 +1341,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>79</v>
@@ -1520,11 +1520,11 @@
         <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1628,7 +1628,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2255,7 +2255,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2463,8 +2463,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -2516,12 +2516,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -2530,12 +2530,12 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -2544,12 +2544,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -2558,12 +2558,12 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -2572,48 +2572,48 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2672,7 +2672,7 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2">

--- a/AndroidAppiumTestCases.xlsx
+++ b/AndroidAppiumTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="682" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="682"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="110">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -337,6 +337,21 @@
   </si>
   <si>
     <t>Order SuccessPage</t>
+  </si>
+  <si>
+    <t>View All + Categories list</t>
+  </si>
+  <si>
+    <t>All links</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>To check with kewyword if search is working</t>
+  </si>
+  <si>
+    <t>Search with keyword</t>
   </si>
 </sst>
 </file>
@@ -740,8 +755,8 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -863,7 +878,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>97</v>
@@ -883,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>98</v>
@@ -919,9 +934,15 @@
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
@@ -2463,7 +2484,7 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>

--- a/AndroidAppiumTestCases.xlsx
+++ b/AndroidAppiumTestCases.xlsx
@@ -15,14 +15,15 @@
     <sheet name="CartPage" sheetId="5" r:id="rId6"/>
     <sheet name="CheckoutPage" sheetId="6" r:id="rId7"/>
     <sheet name="Order SuccessPage" sheetId="7" r:id="rId8"/>
-    <sheet name="Doubts" sheetId="9" r:id="rId9"/>
+    <sheet name="SearchPage" sheetId="10" r:id="rId9"/>
+    <sheet name="Doubts" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="118">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -312,9 +313,6 @@
     <t>sprint1_userSignUp()</t>
   </si>
   <si>
-    <t>sprint1_HotDeals()</t>
-  </si>
-  <si>
     <t xml:space="preserve"> To check all links displaying in navigation drawer </t>
   </si>
   <si>
@@ -348,10 +346,37 @@
     <t>Search</t>
   </si>
   <si>
-    <t>To check with kewyword if search is working</t>
-  </si>
-  <si>
     <t>Search with keyword</t>
+  </si>
+  <si>
+    <t>SearchPage</t>
+  </si>
+  <si>
+    <t>To check results should display after entering any valid keyword</t>
+  </si>
+  <si>
+    <t>To check No Result Found page should display if user enters any invalid keyword</t>
+  </si>
+  <si>
+    <t>hotDeals()</t>
+  </si>
+  <si>
+    <t>To check with keyword if search is working</t>
+  </si>
+  <si>
+    <t>searchWithKeyword()</t>
+  </si>
+  <si>
+    <t>moreLink()</t>
+  </si>
+  <si>
+    <t>viewAllCategoriesList()</t>
+  </si>
+  <si>
+    <t>allLinks()</t>
+  </si>
+  <si>
+    <t>categoriesLabel()</t>
   </si>
 </sst>
 </file>
@@ -756,7 +781,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -847,7 +872,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -867,7 +892,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -878,16 +903,16 @@
         <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
@@ -898,16 +923,16 @@
         <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45">
@@ -918,16 +943,16 @@
         <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -935,16 +960,20 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
@@ -1015,6 +1044,124 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="8">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="8">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="8">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8">
+        <v>15</v>
+      </c>
+      <c r="B15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2485,7 +2632,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2519,12 +2666,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -2542,7 +2689,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -2556,7 +2703,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -2570,7 +2717,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -2584,7 +2731,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -2598,7 +2745,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2610,7 +2757,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2622,7 +2769,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2634,7 +2781,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2689,115 +2836,196 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor theme="2" tint="-0.499984740745262"/>
+    <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="66.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="8">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="8">
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8">
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="8">
+      <c r="B2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="8">
+      <c r="B3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8">
+      <c r="B4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8">
+      <c r="B5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="8">
+      <c r="B6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="8">
+      <c r="B7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="8">
+      <c r="B8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="8">
+      <c r="B9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="8">
+      <c r="B10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="8">
-        <v>14</v>
-      </c>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="8">
-        <v>15</v>
-      </c>
-      <c r="B15" s="8"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AndroidAppiumTestCases.xlsx
+++ b/AndroidAppiumTestCases.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="682"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="819" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="8" r:id="rId1"/>
-    <sheet name="HomePage" sheetId="1" r:id="rId2"/>
-    <sheet name="LoginPage" sheetId="2" r:id="rId3"/>
-    <sheet name="CategoryListPage" sheetId="3" r:id="rId4"/>
-    <sheet name="CategoryPage" sheetId="4" r:id="rId5"/>
-    <sheet name="CartPage" sheetId="5" r:id="rId6"/>
-    <sheet name="CheckoutPage" sheetId="6" r:id="rId7"/>
-    <sheet name="Order SuccessPage" sheetId="7" r:id="rId8"/>
-    <sheet name="SearchPage" sheetId="10" r:id="rId9"/>
-    <sheet name="Doubts" sheetId="9" r:id="rId10"/>
+    <sheet name="Sprint2" sheetId="11" r:id="rId2"/>
+    <sheet name="HomePage" sheetId="1" r:id="rId3"/>
+    <sheet name="LoginPage" sheetId="2" r:id="rId4"/>
+    <sheet name="CategoryListPage" sheetId="3" r:id="rId5"/>
+    <sheet name="CategoryPage" sheetId="4" r:id="rId6"/>
+    <sheet name="CartPage" sheetId="5" r:id="rId7"/>
+    <sheet name="CheckoutPage" sheetId="6" r:id="rId8"/>
+    <sheet name="Order SuccessPage" sheetId="7" r:id="rId9"/>
+    <sheet name="SearchPage" sheetId="10" r:id="rId10"/>
+    <sheet name="Doubts" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="139">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -377,6 +378,69 @@
   </si>
   <si>
     <t>categoriesLabel()</t>
+  </si>
+  <si>
+    <t>My Account</t>
+  </si>
+  <si>
+    <t>My Profile</t>
+  </si>
+  <si>
+    <t>My Orders</t>
+  </si>
+  <si>
+    <t>Wishlist</t>
+  </si>
+  <si>
+    <t>Saved Address</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>To check all details present under My Profile page like First Name, Last Name, Email Address and Save button</t>
+  </si>
+  <si>
+    <t>To check Pending and All Orders tabs are prsent under My orders page</t>
+  </si>
+  <si>
+    <t>To check header should get present under My Profile page and it should include back arrow, label, search icon, cart icon and ellipse icon</t>
+  </si>
+  <si>
+    <t>To check header should get present under My Orders page and it should include back arrow, label, notification icon, cart icon and ellipse icon</t>
+  </si>
+  <si>
+    <t>To check items should get displayed under wishlist page</t>
+  </si>
+  <si>
+    <t>To check header should get present under Wishlist page and it should include back arrow, label, search icon, cart icon and ellipse icon</t>
+  </si>
+  <si>
+    <t>To check Add new deliver address button should present</t>
+  </si>
+  <si>
+    <t>To check user able to save a new address</t>
+  </si>
+  <si>
+    <t>To check user able to edit a saved address</t>
+  </si>
+  <si>
+    <t>To check user able to remove a saved address</t>
+  </si>
+  <si>
+    <t>To check user able to change password</t>
+  </si>
+  <si>
+    <t>To check header should get present under Change Password page and it should include back arrow, label, search icon, cart icon and ellipse icon</t>
+  </si>
+  <si>
+    <t>To check Old Password, New Password, Confirm New Password and Submit button should present</t>
+  </si>
+  <si>
+    <t>To check user able to logout</t>
   </si>
 </sst>
 </file>
@@ -457,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -481,6 +545,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,8 +847,8 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1051,6 +1118,205 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
@@ -1171,11 +1437,282 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="45">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="45">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="45">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="45">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
@@ -1537,7 +2074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -1788,7 +2325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1997,7 +2534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -2206,7 +2743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -2415,7 +2952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -2624,7 +3161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -2831,203 +3368,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15" style="2" customWidth="1"/>
-    <col min="4" max="4" width="61.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/AndroidAppiumTestCases.xlsx
+++ b/AndroidAppiumTestCases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="141">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -404,9 +404,6 @@
     <t>To check all details present under My Profile page like First Name, Last Name, Email Address and Save button</t>
   </si>
   <si>
-    <t>To check Pending and All Orders tabs are prsent under My orders page</t>
-  </si>
-  <si>
     <t>To check header should get present under My Profile page and it should include back arrow, label, search icon, cart icon and ellipse icon</t>
   </si>
   <si>
@@ -441,6 +438,15 @@
   </si>
   <si>
     <t>To check user able to logout</t>
+  </si>
+  <si>
+    <t>optionsMyProfile()</t>
+  </si>
+  <si>
+    <t>To check Pending and All Orders tabs are present under My orders page</t>
+  </si>
+  <si>
+    <t>tabsPresent()</t>
   </si>
 </sst>
 </file>
@@ -848,7 +854,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1125,7 +1131,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1324,7 +1330,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1441,8 +1447,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1490,7 +1496,9 @@
         <v>125</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="45">
       <c r="A3" s="3" t="s">
@@ -1503,10 +1511,12 @@
         <v>119</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="30">
       <c r="A4" s="3" t="s">
@@ -1519,10 +1529,12 @@
         <v>120</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="45">
       <c r="A5" s="3" t="s">
@@ -1535,10 +1547,12 @@
         <v>120</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
@@ -1551,7 +1565,7 @@
         <v>121</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="3"/>
@@ -1567,7 +1581,7 @@
         <v>121</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="3"/>
@@ -1583,7 +1597,7 @@
         <v>122</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="3"/>
@@ -1599,7 +1613,7 @@
         <v>122</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="3"/>
@@ -1615,7 +1629,7 @@
         <v>122</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="3"/>
@@ -1631,7 +1645,7 @@
         <v>122</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="3"/>
@@ -1647,7 +1661,7 @@
         <v>123</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="3"/>
@@ -1663,7 +1677,7 @@
         <v>123</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="3"/>
@@ -1679,7 +1693,7 @@
         <v>123</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="3"/>
@@ -1695,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="3"/>
@@ -1713,7 +1727,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2082,7 +2096,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2333,7 +2347,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2542,7 +2556,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2751,7 +2765,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2960,7 +2974,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3169,7 +3183,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
